--- a/1_semester/Support_and_testing_of_software_modules/Lab1/БД/Comments.xlsx
+++ b/1_semester/Support_and_testing_of_software_modules/Lab1/БД/Comments.xlsx
@@ -24,12 +24,6 @@
     <t>message</t>
   </si>
   <si>
-    <t>masterID</t>
-  </si>
-  <si>
-    <t>requestID</t>
-  </si>
-  <si>
     <t>Интересная поломка</t>
   </si>
   <si>
@@ -40,6 +34,12 @@
   </si>
   <si>
     <t>workID</t>
+  </si>
+  <si>
+    <t>FK_masterID</t>
+  </si>
+  <si>
+    <t>FK_requestID</t>
   </si>
 </sst>
 </file>
@@ -388,7 +388,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -399,23 +399,29 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
+  <cols>
+    <col min="1" max="1" width="8.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.77734375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="15.6">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="15.6">
@@ -423,7 +429,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3">
         <v>1</v>
@@ -437,7 +443,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>2</v>
@@ -451,7 +457,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" s="3">
         <v>1</v>
@@ -465,7 +471,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C5" s="3">
         <v>1</v>
@@ -479,7 +485,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>2</v>
